--- a/pcb/BOM_PCB.xlsx
+++ b/pcb/BOM_PCB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Documenten\1. Software Engineer\Snot\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3603A847-0E4D-4F28-9E11-47B3CDB75022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0622702B-4C62-45ED-9E21-A9C2CF48835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F928B735-A7F8-4FC6-8176-037888F6A5C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Batterijhouder</t>
   </si>
@@ -47,72 +47,48 @@
     <t>https://nl.farnell.com/keystone/3002/battery-smd-retainer-20mm/dp/1650693</t>
   </si>
   <si>
-    <t>9,22</t>
-  </si>
-  <si>
     <t>Drukknop</t>
   </si>
   <si>
     <t>https://nl.farnell.com/omron/b3u-1000p/switch-spst-no-0-05a-12v-smd/dp/1333652</t>
   </si>
   <si>
-    <t>9,38</t>
-  </si>
-  <si>
     <t>100nF condensator</t>
   </si>
   <si>
     <t>https://be.farnell.com/avx/0603yc104kat2a/cap-0-1-f-16v-10-x7r-0603/dp/1327679?st=0603%20100nf</t>
   </si>
   <si>
-    <t>1,92</t>
-  </si>
-  <si>
     <t>220ohm weerstand</t>
   </si>
   <si>
     <t>https://be.farnell.com/walsin/wf08p2200ftl/res-220r-1-0-25w-0805-thick-film/dp/2670071?ICID=I-RP-STM7REC-2</t>
   </si>
   <si>
-    <t>0,12</t>
-  </si>
-  <si>
     <t>Microcontrollers</t>
   </si>
   <si>
     <t>https://be.farnell.com/stmicroelectronics/stm32l412k8u6/mcu-32bit-80mhz/dp/3011633</t>
   </si>
   <si>
-    <t>50,04</t>
-  </si>
-  <si>
     <t>Pin Headers</t>
   </si>
   <si>
     <t>https://be.farnell.com/multicomp/2211s-03g/header-1-row-vert-3way/dp/1593412?st=angled%202.54mm%20pin%20header</t>
   </si>
   <si>
-    <t>0,98</t>
-  </si>
-  <si>
     <t>82ohm weerstand</t>
   </si>
   <si>
     <t>https://be.farnell.com/multicomp/mcwr08x82r0ftl/res-82r-1-0-125w-thick-film/dp/2447730?st=82ohm%20smd%200805</t>
   </si>
   <si>
-    <t>0,16</t>
-  </si>
-  <si>
     <t>150ohm weerstand</t>
   </si>
   <si>
     <t>https://be.farnell.com/walsin/mr08x151-jtlv/res-150r-5-0-25w-0805-thick-film/dp/3994492?st=150ohm%20smd%200805</t>
   </si>
   <si>
-    <t>0,08</t>
-  </si>
-  <si>
     <t>10 knoopcelbatterijen</t>
   </si>
   <si>
@@ -125,14 +101,65 @@
     <t>https://www.bol.com/be/nl/p/varta-cr2032-knoopcel-batterij-10-stuks/9200000052955519/?s2a=#productTitle</t>
   </si>
   <si>
-    <t>10,70</t>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Korte omschrijving</t>
+  </si>
+  <si>
+    <t>Winkel</t>
+  </si>
+  <si>
+    <t>Artikelnummer</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Totale kostprijs</t>
+  </si>
+  <si>
+    <t>RFID/NFC Reader</t>
+  </si>
+  <si>
+    <t>Otronic</t>
+  </si>
+  <si>
+    <t>OT2053-D82</t>
+  </si>
+  <si>
+    <t>https://www.otronic.nl/nl/pn532-rfid-nfc-kit-met-s50-kaart-en-s50-key-tag.html?source=googlebase&amp;gclid=CjwKCAjwzuqgBhAcEiwAdj5dRsDhfE5WsyZMbEodYpT0FXir6ChjKb69kNN1ihMcyHZvQlf0J4a8PBoCpfcQAvD_BwE</t>
+  </si>
+  <si>
+    <t>NFC gedeelte</t>
+  </si>
+  <si>
+    <t>RFID/NFC kaarten</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>KW-1706</t>
+  </si>
+  <si>
+    <t>https://www.kiwi-electronics.com/nl/13-56mhz-rfid-nfc-kaart-1kb-863?search=nfc</t>
+  </si>
+  <si>
+    <t>RFID/NFC Tags</t>
+  </si>
+  <si>
+    <t>KW-2134</t>
+  </si>
+  <si>
+    <t>https://www.kiwi-electronics.com/nl/13-56mhz-rfid-nfc-sleutelhanger-3711?search=nfc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +182,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +212,14 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -178,38 +227,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68E390A-601F-45E3-BF89-AADC0445887B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,170 +585,292 @@
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19.98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D3" s="5">
         <v>1650693</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="5">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1333652</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F4" s="2">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>1333652</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D5" s="5">
+        <v>1327679</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F5" s="5">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1327679</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2">
+        <v>2670071</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F6" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3011633</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F7" s="5">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>2670071</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D8" s="2">
+        <v>1539412</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F8" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>3011633</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D9" s="5">
+        <v>2447730</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F9" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3994492</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F10" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>1539412</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2447730</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3994492</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
+      <c r="F11" s="5">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{F702A734-F012-4689-A7DB-C5F4328C8D14}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{448050CD-8E45-454E-AE22-B6205E5FC145}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{DD7237B5-C30E-427D-A6CE-C13C7C2D16C2}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{B7FB23E9-F709-4801-89FF-F1B260E7ADAE}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{B0F7662D-3624-436D-A4A1-213CE2FE9B9A}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{91F2A7F5-BCFB-414C-AB5C-7A7D7064363A}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{6E7413BC-0441-4187-89ED-F1D4D9863359}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{9A35CDBB-2E27-4037-A403-D9290410B084}"/>
-    <hyperlink ref="D9" r:id="rId9" location="productTitle" display="https://www.bol.com/be/nl/p/varta-cr2032-knoopcel-batterij-10-stuks/9200000052955519/?s2a= - productTitle" xr:uid="{00AF94A3-97BB-4D59-A61F-0883E85C57A8}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{761BDAF3-F2EA-4ED5-8C69-AFC992ACD579}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{74DA9DEB-03E4-4CF2-9114-CAD650F536A4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E828F040-1488-4913-8AA7-A74E6FE315E9}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{42CE3355-F12C-4FC4-8D32-3EAD8F568742}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{AF931DCA-F4C4-45A8-ABDD-5A1BE8A6395F}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{B18FA228-7C3A-45A6-83BC-663228818D93}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{F35A45B7-2AE3-4FEA-A612-1B2B5A51A2C1}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{4C6DB0D7-46DE-46FD-A089-88228174866F}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{F9553784-7477-431D-B181-FF870ACE6339}"/>
+    <hyperlink ref="E11" r:id="rId10" location="productTitle" display="https://www.bol.com/be/nl/p/varta-cr2032-knoopcel-batterij-10-stuks/9200000052955519/?s2a= - productTitle" xr:uid="{026EFF68-A4AF-4FAB-B749-48349128564D}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{EA92F1E7-E9BF-4224-A036-012ED4E32C90}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{3FEE6CB4-36DA-49FB-B2A6-7F21B6CB1857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
